--- a/tests/data/model_test/02_schematisation/model_settings_default.xlsx
+++ b/tests/data/model_test/02_schematisation/model_settings_default.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp.hhnk.nl\data\Hydrologen_data\Data\02.modellen\model_test_v2\02_Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp.hhnk.nl\data\hydrologen_data\Data\github\wvangerwen\hhnk-threedi-tools\tests\data\model_test\02_schematisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16173913-7860-4A9F-946F-D400A7C54A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75E1D3F-E8FE-4BD3-BB5D-0AEBB83F2494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1B3E74DF-8504-4A9A-9382-ED86C57E9482}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1B3E74DF-8504-4A9A-9382-ED86C57E9482}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>maximum_sim_time_step</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>start_time</t>
-  </si>
-  <si>
-    <t>initial_waterlevel_file</t>
   </si>
   <si>
     <t>sim_time_step</t>
@@ -519,15 +516,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E170822C-96C0-450A-813D-B7BC97529365}">
-  <dimension ref="A1:BR2"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AJ12" sqref="AJ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:70" ht="45" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:37" ht="45" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +577,7 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>18</v>
@@ -619,10 +616,10 @@
         <v>28</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>30</v>
@@ -639,43 +636,8 @@
       <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
-      <c r="BD1" s="1"/>
-      <c r="BE1" s="1"/>
-      <c r="BF1" s="1"/>
-      <c r="BG1" s="1"/>
-      <c r="BH1" s="1"/>
-      <c r="BI1" s="1"/>
-      <c r="BJ1" s="1"/>
-      <c r="BK1" s="1"/>
-      <c r="BL1" s="1"/>
-      <c r="BM1" s="1"/>
-      <c r="BN1" s="1"/>
-      <c r="BO1" s="1"/>
-      <c r="BP1" s="1"/>
-      <c r="BQ1" s="1"/>
-      <c r="BR1" s="1"/>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>300</v>
       </c>
@@ -735,75 +697,42 @@
       <c r="W2" s="1">
         <v>0</v>
       </c>
-      <c r="X2" s="1"/>
+      <c r="X2" s="1">
+        <v>15</v>
+      </c>
       <c r="Y2" s="1">
-        <v>15</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="Z2" s="1">
-        <v>2.5999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="1">
         <v>0</v>
       </c>
       <c r="AB2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="1">
         <v>1</v>
       </c>
-      <c r="AD2" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>1</v>
-      </c>
+      <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1">
+      <c r="AJ2" s="1">
         <v>100</v>
       </c>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="1"/>
-      <c r="AS2" s="1"/>
-      <c r="AT2" s="1"/>
-      <c r="AU2" s="1"/>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
-      <c r="AX2" s="1"/>
-      <c r="AY2" s="1"/>
-      <c r="AZ2" s="1"/>
-      <c r="BA2" s="1"/>
-      <c r="BB2" s="1"/>
-      <c r="BC2" s="1"/>
-      <c r="BD2" s="1"/>
-      <c r="BE2" s="1"/>
-      <c r="BF2" s="1"/>
-      <c r="BG2" s="1"/>
-      <c r="BH2" s="1"/>
-      <c r="BI2" s="1"/>
-      <c r="BJ2" s="1"/>
-      <c r="BK2" s="1"/>
-      <c r="BL2" s="1"/>
-      <c r="BM2" s="1"/>
-      <c r="BN2" s="1"/>
-      <c r="BO2" s="1"/>
-      <c r="BP2" s="1"/>
-      <c r="BQ2" s="1"/>
-      <c r="BR2" s="1"/>
+      <c r="AK2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/data/model_test/02_schematisation/model_settings_default.xlsx
+++ b/tests/data/model_test/02_schematisation/model_settings_default.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp.hhnk.nl\data\hydrologen_data\Data\github\wvangerwen\hhnk-threedi-tools\tests\data\model_test\02_schematisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75E1D3F-E8FE-4BD3-BB5D-0AEBB83F2494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF312197-6538-4756-8B17-07DB41193A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1B3E74DF-8504-4A9A-9382-ED86C57E9482}"/>
+    <workbookView xWindow="19710" yWindow="7335" windowWidth="42510" windowHeight="17565" xr2:uid="{1B3E74DF-8504-4A9A-9382-ED86C57E9482}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>maximum_sim_time_step</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>initial_groundwater_level_type</t>
-  </si>
-  <si>
-    <t>water_level_ini_type</t>
   </si>
   <si>
     <t>grid_space</t>
@@ -516,15 +513,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E170822C-96C0-450A-813D-B7BC97529365}">
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AJ12" sqref="AJ12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:37" ht="45" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:36" ht="45" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,10 +571,10 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>18</v>
@@ -589,10 +586,10 @@
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>22</v>
@@ -613,10 +610,10 @@
         <v>27</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>29</v>
@@ -633,11 +630,8 @@
       <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>300</v>
       </c>
@@ -668,71 +662,68 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M2" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
         <v>40</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="P2" s="2">
         <v>42005</v>
       </c>
+      <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
+      <c r="S2" s="1">
+        <v>0.02</v>
+      </c>
       <c r="T2" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="U2" s="1">
         <v>1</v>
       </c>
-      <c r="V2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
       <c r="W2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X2" s="1">
-        <v>15</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="Y2" s="1">
-        <v>2.5999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>0</v>
       </c>
       <c r="AA2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="1">
         <v>1</v>
       </c>
-      <c r="AC2" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>1</v>
-      </c>
+      <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1">
+      <c r="AI2" s="1">
         <v>100</v>
       </c>
-      <c r="AK2" s="1"/>
+      <c r="AJ2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/data/model_test/02_schematisation/model_settings_default.xlsx
+++ b/tests/data/model_test/02_schematisation/model_settings_default.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp.hhnk.nl\data\Hydrologen_data\Data\02.modellen\model_test_v2\02_Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp.hhnk.nl\data\hydrologen_data\Data\github\wvangerwen\hhnk-threedi-tools\tests\data\model_test\02_schematisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16173913-7860-4A9F-946F-D400A7C54A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF312197-6538-4756-8B17-07DB41193A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1B3E74DF-8504-4A9A-9382-ED86C57E9482}"/>
+    <workbookView xWindow="19710" yWindow="7335" windowWidth="42510" windowHeight="17565" xr2:uid="{1B3E74DF-8504-4A9A-9382-ED86C57E9482}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>maximum_sim_time_step</t>
   </si>
@@ -69,9 +69,6 @@
     <t>initial_groundwater_level_type</t>
   </si>
   <si>
-    <t>water_level_ini_type</t>
-  </si>
-  <si>
     <t>grid_space</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
   </si>
   <si>
     <t>start_time</t>
-  </si>
-  <si>
-    <t>initial_waterlevel_file</t>
   </si>
   <si>
     <t>sim_time_step</t>
@@ -519,15 +513,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E170822C-96C0-450A-813D-B7BC97529365}">
-  <dimension ref="A1:BR2"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:70" ht="45" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:36" ht="45" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,10 +571,10 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>18</v>
@@ -592,10 +586,10 @@
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>22</v>
@@ -616,13 +610,13 @@
         <v>27</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>30</v>
@@ -636,46 +630,8 @@
       <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
-      <c r="BD1" s="1"/>
-      <c r="BE1" s="1"/>
-      <c r="BF1" s="1"/>
-      <c r="BG1" s="1"/>
-      <c r="BH1" s="1"/>
-      <c r="BI1" s="1"/>
-      <c r="BJ1" s="1"/>
-      <c r="BK1" s="1"/>
-      <c r="BL1" s="1"/>
-      <c r="BM1" s="1"/>
-      <c r="BN1" s="1"/>
-      <c r="BO1" s="1"/>
-      <c r="BP1" s="1"/>
-      <c r="BQ1" s="1"/>
-      <c r="BR1" s="1"/>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>300</v>
       </c>
@@ -706,104 +662,68 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M2" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
         <v>40</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="P2" s="2">
         <v>42005</v>
       </c>
+      <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
+      <c r="S2" s="1">
+        <v>0.02</v>
+      </c>
       <c r="T2" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="U2" s="1">
         <v>1</v>
       </c>
-      <c r="V2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
       <c r="W2" s="1">
-        <v>0</v>
-      </c>
-      <c r="X2" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="X2" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
       <c r="Y2" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>2.5999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AC2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="1">
         <v>1</v>
       </c>
-      <c r="AD2" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1">
+        <v>100</v>
+      </c>
       <c r="AJ2" s="1"/>
-      <c r="AK2" s="1">
-        <v>100</v>
-      </c>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="1"/>
-      <c r="AS2" s="1"/>
-      <c r="AT2" s="1"/>
-      <c r="AU2" s="1"/>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
-      <c r="AX2" s="1"/>
-      <c r="AY2" s="1"/>
-      <c r="AZ2" s="1"/>
-      <c r="BA2" s="1"/>
-      <c r="BB2" s="1"/>
-      <c r="BC2" s="1"/>
-      <c r="BD2" s="1"/>
-      <c r="BE2" s="1"/>
-      <c r="BF2" s="1"/>
-      <c r="BG2" s="1"/>
-      <c r="BH2" s="1"/>
-      <c r="BI2" s="1"/>
-      <c r="BJ2" s="1"/>
-      <c r="BK2" s="1"/>
-      <c r="BL2" s="1"/>
-      <c r="BM2" s="1"/>
-      <c r="BN2" s="1"/>
-      <c r="BO2" s="1"/>
-      <c r="BP2" s="1"/>
-      <c r="BQ2" s="1"/>
-      <c r="BR2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
